--- a/Code/Results/Cases/Case_2_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60370306786588</v>
+        <v>14.82786878980364</v>
       </c>
       <c r="C2">
-        <v>13.81088773029916</v>
+        <v>13.26615099274944</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.714041978894345</v>
+        <v>13.38990552783956</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>14.70505403686755</v>
+        <v>23.48114609952249</v>
       </c>
       <c r="H2">
-        <v>7.301872351853341</v>
+        <v>13.13029943223797</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.150777270897753</v>
+        <v>9.825991084247685</v>
       </c>
       <c r="M2">
-        <v>12.3505229226947</v>
+        <v>14.19150112599157</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.93348816653213</v>
+        <v>19.25379860382921</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.18383115467697</v>
+        <v>14.19808162115057</v>
       </c>
       <c r="C3">
-        <v>13.38603818751614</v>
+        <v>13.13080476373325</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.895690809106283</v>
+        <v>13.45949124857107</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>14.89476703100838</v>
+        <v>23.70662309395977</v>
       </c>
       <c r="H3">
-        <v>7.464563424839252</v>
+        <v>13.20307032929184</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.066796427231664</v>
+        <v>9.832305485148286</v>
       </c>
       <c r="M3">
-        <v>11.7130828245092</v>
+        <v>14.04287027211824</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.18896416927813</v>
+        <v>19.39196281608329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.26002408690436</v>
+        <v>13.79670086905288</v>
       </c>
       <c r="C4">
-        <v>13.12059714372435</v>
+        <v>13.04804393776718</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.010868220809552</v>
+        <v>13.50447946049354</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>15.05244460632817</v>
+        <v>23.85614092975618</v>
       </c>
       <c r="H4">
-        <v>7.570262625191226</v>
+        <v>13.25038677684129</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.017342862950454</v>
+        <v>9.837493439078253</v>
       </c>
       <c r="M4">
-        <v>11.30574685674061</v>
+        <v>13.95197520415265</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.36081355384875</v>
+        <v>19.48224176457315</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.87044106310628</v>
+        <v>13.62964313649275</v>
       </c>
       <c r="C5">
-        <v>13.01141035089852</v>
+        <v>13.01443353439404</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.058734636025596</v>
+        <v>13.52338304414193</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>15.12629381418651</v>
+        <v>23.91983727918764</v>
       </c>
       <c r="H5">
-        <v>7.614748048119608</v>
+        <v>13.2703317749575</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.997732130243357</v>
+        <v>9.839937797280397</v>
       </c>
       <c r="M5">
-        <v>11.13590198559386</v>
+        <v>13.91505825707945</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.43439209446689</v>
+        <v>19.52039907098326</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.80495714673547</v>
+        <v>13.60169886886438</v>
       </c>
       <c r="C6">
-        <v>12.99322267137021</v>
+        <v>13.00886036760821</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.066739438950464</v>
+        <v>13.52655647645526</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>15.13911383073295</v>
+        <v>23.93058058607107</v>
       </c>
       <c r="H6">
-        <v>7.622218817235558</v>
+        <v>13.2736836985908</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.994508823238356</v>
+        <v>9.840363641848706</v>
       </c>
       <c r="M6">
-        <v>11.10747191962936</v>
+        <v>13.90893661149962</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.44681805579599</v>
+        <v>19.52681764078637</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.25482323280818</v>
+        <v>13.79446172147215</v>
       </c>
       <c r="C7">
-        <v>13.11912854577141</v>
+        <v>13.04759015075574</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.011509977083524</v>
+        <v>13.50473208861759</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>15.05340271536078</v>
+        <v>23.85698878265794</v>
       </c>
       <c r="H7">
-        <v>7.570856912526412</v>
+        <v>13.2506530761154</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.017076177258308</v>
+        <v>9.837525066746082</v>
       </c>
       <c r="M7">
-        <v>11.30347163616082</v>
+        <v>13.9514767873073</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.3617917668814</v>
+        <v>19.48275083059031</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.12489273152801</v>
+        <v>14.61387962987321</v>
       </c>
       <c r="C8">
-        <v>13.66542785112287</v>
+        <v>13.21943013817943</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.775926883254048</v>
+        <v>13.41343013917414</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>14.76145547577727</v>
+        <v>23.55658119574514</v>
       </c>
       <c r="H8">
-        <v>7.356732501604078</v>
+        <v>13.15484434702624</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.121389529026</v>
+        <v>9.827896588424807</v>
       </c>
       <c r="M8">
-        <v>12.13412820266861</v>
+        <v>14.14019659285239</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.01832686925587</v>
+        <v>19.30030651770968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38199249351901</v>
+        <v>16.09665780592045</v>
       </c>
       <c r="C9">
-        <v>14.69503876439792</v>
+        <v>13.5578382767969</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.342191335066743</v>
+        <v>13.25226209564852</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>14.54976494751318</v>
+        <v>23.0561728557312</v>
       </c>
       <c r="H9">
-        <v>6.985388541494841</v>
+        <v>12.98784179012228</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.342169603679397</v>
+        <v>9.819388678670943</v>
       </c>
       <c r="M9">
-        <v>13.7715200364116</v>
+        <v>14.51177117373209</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.47475138428014</v>
+        <v>18.98580770434948</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.52879327561144</v>
+        <v>17.10193981432359</v>
       </c>
       <c r="C10">
-        <v>15.41980067392296</v>
+        <v>13.80562397937308</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.039766809002815</v>
+        <v>13.14464278877724</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>14.65830434616769</v>
+        <v>22.74374000880306</v>
       </c>
       <c r="H10">
-        <v>6.74617700774704</v>
+        <v>12.8778336077112</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.513531034796745</v>
+        <v>9.819421879862462</v>
       </c>
       <c r="M10">
-        <v>14.91853435782352</v>
+        <v>14.78381007322585</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.17169769438538</v>
+        <v>18.78121983766327</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.45287539407809</v>
+        <v>17.53962686361628</v>
       </c>
       <c r="C11">
-        <v>15.74154121852184</v>
+        <v>13.91780580668235</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.905490642136823</v>
+        <v>13.09800454091681</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>14.77321242510286</v>
+        <v>22.6138510832658</v>
       </c>
       <c r="H11">
-        <v>6.645728971621727</v>
+        <v>12.8305355126026</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.593316537383005</v>
+        <v>9.820791537642689</v>
       </c>
       <c r="M11">
-        <v>15.41384130170993</v>
+        <v>14.90696780577779</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.05900416136834</v>
+        <v>18.69391884659272</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.79532756266937</v>
+        <v>17.70245413787701</v>
       </c>
       <c r="C12">
-        <v>15.86215589424092</v>
+        <v>13.96017932102222</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.85509940849444</v>
+        <v>13.08067552467967</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>14.82669225892502</v>
+        <v>22.56644718889351</v>
       </c>
       <c r="H12">
-        <v>6.609001961631347</v>
+        <v>12.81301925833625</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.623779527102743</v>
+        <v>9.821503984838586</v>
       </c>
       <c r="M12">
-        <v>15.59761774125865</v>
+        <v>14.95348669709925</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.02033977695621</v>
+        <v>18.66169181606399</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.7219057338949</v>
+        <v>17.66751736825356</v>
       </c>
       <c r="C13">
-        <v>15.8362348051908</v>
+        <v>13.95105867137417</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.865932065408082</v>
+        <v>13.0843929017708</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>14.81472376092709</v>
+        <v>22.57657684078264</v>
       </c>
       <c r="H13">
-        <v>6.616851640300276</v>
+        <v>12.81677415474651</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.617207868928086</v>
+        <v>9.821341944533877</v>
       </c>
       <c r="M13">
-        <v>15.55820615777202</v>
+        <v>14.94347379731577</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.02848197609743</v>
+        <v>18.66859543808839</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.481198573693</v>
+        <v>17.55308167373394</v>
       </c>
       <c r="C14">
-        <v>15.75148914436818</v>
+        <v>13.9212942218971</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.901335887061917</v>
+        <v>13.0965722295466</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>14.77740980418717</v>
+        <v>22.6099152885127</v>
       </c>
       <c r="H14">
-        <v>6.642680490984744</v>
+        <v>12.82908653456368</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.595817811664147</v>
+        <v>9.820846273296381</v>
       </c>
       <c r="M14">
-        <v>15.42903642475749</v>
+        <v>14.91079749897808</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.05574051262333</v>
+        <v>18.69125081990036</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.33278689785766</v>
+        <v>17.48260431483276</v>
       </c>
       <c r="C15">
-        <v>15.69941880146805</v>
+        <v>13.9030477803203</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.923080618787367</v>
+        <v>13.10407559539897</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>14.75586600080254</v>
+        <v>22.63056881855407</v>
       </c>
       <c r="H15">
-        <v>6.658675487776064</v>
+        <v>12.83667959266565</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.582747944353673</v>
+        <v>9.820567866304376</v>
       </c>
       <c r="M15">
-        <v>15.34942397868043</v>
+        <v>14.89076595730574</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.07297147106775</v>
+        <v>18.70523632272646</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.46735189202464</v>
+        <v>17.07293274697975</v>
       </c>
       <c r="C16">
-        <v>15.39860719758729</v>
+        <v>13.79827924063917</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.048606913684215</v>
+        <v>13.14773723029809</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>14.65216256736532</v>
+        <v>22.75247672535561</v>
       </c>
       <c r="H16">
-        <v>6.752918765495957</v>
+        <v>12.88097986759549</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.508352564854134</v>
+        <v>9.819359543289677</v>
       </c>
       <c r="M16">
-        <v>14.88563384648804</v>
+        <v>14.77574664907968</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.17960172728334</v>
+        <v>18.78704143513895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.92303771920289</v>
+        <v>16.81651550816649</v>
       </c>
       <c r="C17">
-        <v>15.21197250225198</v>
+        <v>13.73384798345178</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.126445357166518</v>
+        <v>13.17511493737661</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>14.60575061664575</v>
+        <v>22.83041360144163</v>
       </c>
       <c r="H17">
-        <v>6.812949405554282</v>
+        <v>12.90885957046198</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.463172901116798</v>
+        <v>9.818964526758982</v>
       </c>
       <c r="M17">
-        <v>14.5943461560984</v>
+        <v>14.70501029934856</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.25173143556153</v>
+        <v>18.8387051536924</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.60501568572644</v>
+        <v>16.66718887315354</v>
       </c>
       <c r="C18">
-        <v>15.10388008650539</v>
+        <v>13.6967400360095</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.171527539238657</v>
+        <v>13.19108016965359</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>14.58519805585691</v>
+        <v>22.87639139974359</v>
       </c>
       <c r="H18">
-        <v>6.848258093423934</v>
+        <v>12.92515363960021</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.437360003974144</v>
+        <v>9.818864885345066</v>
       </c>
       <c r="M18">
-        <v>14.42431149423874</v>
+        <v>14.66427062780964</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.29556216810776</v>
+        <v>18.86896341243712</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.49648708541947</v>
+        <v>16.61631614639342</v>
       </c>
       <c r="C19">
-        <v>15.06715641881559</v>
+        <v>13.68416846830051</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.186845642967031</v>
+        <v>13.19652326185708</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>14.57927585552666</v>
+        <v>22.89215562836772</v>
       </c>
       <c r="H19">
-        <v>6.860344061949651</v>
+        <v>12.93071492026885</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.428650378464075</v>
+        <v>9.818853086354679</v>
       </c>
       <c r="M19">
-        <v>14.36631182009025</v>
+        <v>14.65046861227314</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.31079355276072</v>
+        <v>18.87930146151693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.98149236163859</v>
+        <v>16.84400295147319</v>
       </c>
       <c r="C20">
-        <v>15.23191779107348</v>
+        <v>13.74071207032453</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.118127204553872</v>
+        <v>13.17217795143345</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>14.61005123431035</v>
+        <v>22.8219978476047</v>
       </c>
       <c r="H20">
-        <v>6.806477518597265</v>
+        <v>12.90586498681312</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.467964522697359</v>
+        <v>9.818993381754803</v>
       </c>
       <c r="M20">
-        <v>14.62561217613631</v>
+        <v>14.71254613259287</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.24380780091944</v>
+        <v>18.83314928111539</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.55210244483692</v>
+        <v>17.58677400662108</v>
       </c>
       <c r="C21">
-        <v>15.77641471124967</v>
+        <v>13.93003991114498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.890924691396333</v>
+        <v>13.09298587057482</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>14.78809558095616</v>
+        <v>22.60007442917082</v>
       </c>
       <c r="H21">
-        <v>6.635057442133692</v>
+        <v>12.82545938508671</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.602093910974018</v>
+        <v>9.820986612944433</v>
       </c>
       <c r="M21">
-        <v>15.46707924572707</v>
+        <v>14.92039878807429</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.04762193325835</v>
+        <v>18.68457378397797</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.53503760490722</v>
+        <v>18.05519168026181</v>
       </c>
       <c r="C22">
-        <v>16.12512697659109</v>
+        <v>14.05313762693899</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.745085171448531</v>
+        <v>13.04316301101555</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>14.96271685121453</v>
+        <v>22.46543344097961</v>
       </c>
       <c r="H22">
-        <v>6.530723207818473</v>
+        <v>12.775209084086</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.691206380672172</v>
+        <v>9.823418328895473</v>
       </c>
       <c r="M22">
-        <v>15.99497531797489</v>
+        <v>15.05553841046098</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.942977395421043</v>
+        <v>18.59232174739072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.01438638109711</v>
+        <v>17.80677351498759</v>
       </c>
       <c r="C23">
-        <v>15.9396894235878</v>
+        <v>13.98750629618382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.822686083843641</v>
+        <v>13.06957796167602</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>14.8640390932724</v>
+        <v>22.5363348952163</v>
       </c>
       <c r="H23">
-        <v>6.585664790969008</v>
+        <v>12.8018182903619</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.643516883946885</v>
+        <v>9.822017519957861</v>
       </c>
       <c r="M23">
-        <v>15.71523641030321</v>
+        <v>14.98348694760096</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.996535110484158</v>
+        <v>18.6411136437488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.95508087301989</v>
+        <v>16.83158181703953</v>
       </c>
       <c r="C24">
-        <v>15.22290299203603</v>
+        <v>13.73760901856145</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.121886806434031</v>
+        <v>13.1735050604878</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>14.60808787333713</v>
+        <v>22.82579896448055</v>
       </c>
       <c r="H24">
-        <v>6.809400986373106</v>
+        <v>12.90721801054895</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.465797726528344</v>
+        <v>9.818979939317316</v>
       </c>
       <c r="M24">
-        <v>14.61148481343496</v>
+        <v>14.70913940538666</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.24738274710336</v>
+        <v>18.83565935908161</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.54438704922443</v>
+        <v>15.70976964044982</v>
       </c>
       <c r="C25">
-        <v>14.42165833157463</v>
+        <v>13.4663145466466</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.456603494002765</v>
+        <v>13.29395971690963</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>14.56368876315181</v>
+        <v>23.18193461126831</v>
       </c>
       <c r="H25">
-        <v>7.08026975017826</v>
+        <v>13.03078945759021</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.280780583468291</v>
+        <v>9.820583571902661</v>
       </c>
       <c r="M25">
-        <v>13.32553469828321</v>
+        <v>14.41128392395163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.60623277186293</v>
+        <v>19.06624603512856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.82786878980364</v>
+        <v>21.60370306786586</v>
       </c>
       <c r="C2">
-        <v>13.26615099274944</v>
+        <v>13.81088773029914</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.38990552783956</v>
+        <v>7.714041978894411</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>23.48114609952249</v>
+        <v>14.70505403686792</v>
       </c>
       <c r="H2">
-        <v>13.13029943223797</v>
+        <v>7.301872351853396</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.825991084247685</v>
+        <v>6.150777270897845</v>
       </c>
       <c r="M2">
-        <v>14.19150112599157</v>
+        <v>12.35052292269473</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.25379860382921</v>
+        <v>10.93348816653224</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19808162115057</v>
+        <v>20.18383115467701</v>
       </c>
       <c r="C3">
-        <v>13.13080476373325</v>
+        <v>13.38603818751613</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.45949124857107</v>
+        <v>7.895690809106283</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>23.70662309395977</v>
+        <v>14.89476703100829</v>
       </c>
       <c r="H3">
-        <v>13.20307032929184</v>
+        <v>7.464563424839124</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.832305485148286</v>
+        <v>6.066796427231671</v>
       </c>
       <c r="M3">
-        <v>14.04287027211824</v>
+        <v>11.71308282450919</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.39196281608329</v>
+        <v>11.18896416927798</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.79670086905288</v>
+        <v>19.26002408690434</v>
       </c>
       <c r="C4">
-        <v>13.04804393776718</v>
+        <v>13.12059714372447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.50447946049354</v>
+        <v>8.01086822080962</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>23.85614092975618</v>
+        <v>15.05244460632811</v>
       </c>
       <c r="H4">
-        <v>13.25038677684129</v>
+        <v>7.570262625191226</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.837493439078253</v>
+        <v>6.017342862950425</v>
       </c>
       <c r="M4">
-        <v>13.95197520415265</v>
+        <v>11.30574685674063</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.48224176457315</v>
+        <v>11.36081355384871</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.62964313649275</v>
+        <v>18.87044106310629</v>
       </c>
       <c r="C5">
-        <v>13.01443353439404</v>
+        <v>13.01141035089833</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.52338304414193</v>
+        <v>8.058734636025596</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>23.91983727918764</v>
+        <v>15.12629381418646</v>
       </c>
       <c r="H5">
-        <v>13.2703317749575</v>
+        <v>7.614748048119607</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.839937797280397</v>
+        <v>5.99773213024338</v>
       </c>
       <c r="M5">
-        <v>13.91505825707945</v>
+        <v>11.13590198559386</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.52039907098326</v>
+        <v>11.43439209446687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.60169886886438</v>
+        <v>18.80495714673544</v>
       </c>
       <c r="C6">
-        <v>13.00886036760821</v>
+        <v>12.99322267137023</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.52655647645526</v>
+        <v>8.06673943895073</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>23.93058058607107</v>
+        <v>15.13911383073303</v>
       </c>
       <c r="H6">
-        <v>13.2736836985908</v>
+        <v>7.622218817235551</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.840363641848706</v>
+        <v>5.994508823238452</v>
       </c>
       <c r="M6">
-        <v>13.90893661149962</v>
+        <v>11.10747191962942</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.52681764078637</v>
+        <v>11.44681805579601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.79446172147215</v>
+        <v>19.25482323280817</v>
       </c>
       <c r="C7">
-        <v>13.04759015075574</v>
+        <v>13.11912854577164</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.50473208861759</v>
+        <v>8.011509977083655</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>23.85698878265794</v>
+        <v>15.05340271536068</v>
       </c>
       <c r="H7">
-        <v>13.2506530761154</v>
+        <v>7.570856912526408</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.837525066746082</v>
+        <v>6.017076177258335</v>
       </c>
       <c r="M7">
-        <v>13.9514767873073</v>
+        <v>11.30347163616084</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.48275083059031</v>
+        <v>11.36179176688134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.61387962987321</v>
+        <v>21.124892731528</v>
       </c>
       <c r="C8">
-        <v>13.21943013817943</v>
+        <v>13.66542785112297</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.41343013917414</v>
+        <v>7.775926883254113</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>23.55658119574514</v>
+        <v>14.76145547577746</v>
       </c>
       <c r="H8">
-        <v>13.15484434702624</v>
+        <v>7.356732501604073</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.827896588424807</v>
+        <v>6.121389529026029</v>
       </c>
       <c r="M8">
-        <v>14.14019659285239</v>
+        <v>12.13412820266864</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.30030651770968</v>
+        <v>11.01832686925595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.09665780592045</v>
+        <v>24.38199249351902</v>
       </c>
       <c r="C9">
-        <v>13.5578382767969</v>
+        <v>14.69503876439805</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.25226209564852</v>
+        <v>7.342191335066743</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>23.0561728557312</v>
+        <v>14.54976494751314</v>
       </c>
       <c r="H9">
-        <v>12.98784179012228</v>
+        <v>6.98538854149483</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.819388678670943</v>
+        <v>6.342169603679395</v>
       </c>
       <c r="M9">
-        <v>14.51177117373209</v>
+        <v>13.7715200364116</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.98580770434948</v>
+        <v>10.47475138428012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.10193981432359</v>
+        <v>26.52879327561147</v>
       </c>
       <c r="C10">
-        <v>13.80562397937308</v>
+        <v>15.41980067392295</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.14464278877724</v>
+        <v>7.039766809002744</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>22.74374000880306</v>
+        <v>14.65830434616737</v>
       </c>
       <c r="H10">
-        <v>12.8778336077112</v>
+        <v>6.746177007747023</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.819421879862462</v>
+        <v>6.513531034796778</v>
       </c>
       <c r="M10">
-        <v>14.78381007322585</v>
+        <v>14.91853435782354</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.78121983766327</v>
+        <v>10.17169769438521</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53962686361628</v>
+        <v>27.45287539407806</v>
       </c>
       <c r="C11">
-        <v>13.91780580668235</v>
+        <v>15.74154121852182</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.09800454091681</v>
+        <v>6.905490642136892</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>22.6138510832658</v>
+        <v>14.77321242510302</v>
       </c>
       <c r="H11">
-        <v>12.8305355126026</v>
+        <v>6.645728971621731</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.820791537642689</v>
+        <v>6.593316537383035</v>
       </c>
       <c r="M11">
-        <v>14.90696780577779</v>
+        <v>15.4138413017099</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.69391884659272</v>
+        <v>10.05900416136842</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.70245413787701</v>
+        <v>27.79532756266936</v>
       </c>
       <c r="C12">
-        <v>13.96017932102222</v>
+        <v>15.86215589424094</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.08067552467967</v>
+        <v>6.855099408494373</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>22.56644718889351</v>
+        <v>14.82669225892507</v>
       </c>
       <c r="H12">
-        <v>12.81301925833625</v>
+        <v>6.609001961631352</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.821503984838586</v>
+        <v>6.623779527102698</v>
       </c>
       <c r="M12">
-        <v>14.95348669709925</v>
+        <v>15.59761774125865</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.66169181606399</v>
+        <v>10.02033977695626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.66751736825356</v>
+        <v>27.72190573389486</v>
       </c>
       <c r="C13">
-        <v>13.95105867137417</v>
+        <v>15.83623480519091</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.0843929017708</v>
+        <v>6.865932065408145</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>22.57657684078264</v>
+        <v>14.81472376092718</v>
       </c>
       <c r="H13">
-        <v>12.81677415474651</v>
+        <v>6.616851640300377</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.821341944533877</v>
+        <v>6.617207868928014</v>
       </c>
       <c r="M13">
-        <v>14.94347379731577</v>
+        <v>15.55820615777199</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.66859543808839</v>
+        <v>10.02848197609761</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55308167373394</v>
+        <v>27.48119857369306</v>
       </c>
       <c r="C14">
-        <v>13.9212942218971</v>
+        <v>15.75148914436794</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.0965722295466</v>
+        <v>6.901335887061849</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>22.6099152885127</v>
+        <v>14.77740980418718</v>
       </c>
       <c r="H14">
-        <v>12.82908653456368</v>
+        <v>6.642680490984695</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.820846273296381</v>
+        <v>6.595817811664182</v>
       </c>
       <c r="M14">
-        <v>14.91079749897808</v>
+        <v>15.42903642475751</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.69125081990036</v>
+        <v>10.05574051262332</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48260431483276</v>
+        <v>27.33278689785766</v>
       </c>
       <c r="C15">
-        <v>13.9030477803203</v>
+        <v>15.69941880146811</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.10407559539897</v>
+        <v>6.923080618787367</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>22.63056881855407</v>
+        <v>14.75586600080253</v>
       </c>
       <c r="H15">
-        <v>12.83667959266565</v>
+        <v>6.658675487776058</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.820567866304376</v>
+        <v>6.582747944353655</v>
       </c>
       <c r="M15">
-        <v>14.89076595730574</v>
+        <v>15.34942397868044</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.70523632272646</v>
+        <v>10.07297147106774</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.07293274697975</v>
+        <v>26.46735189202469</v>
       </c>
       <c r="C16">
-        <v>13.79827924063917</v>
+        <v>15.39860719758702</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.14773723029809</v>
+        <v>7.048606913684348</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>22.75247672535561</v>
+        <v>14.65216256736522</v>
       </c>
       <c r="H16">
-        <v>12.88097986759549</v>
+        <v>6.752918765495952</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.819359543289677</v>
+        <v>6.508352564854272</v>
       </c>
       <c r="M16">
-        <v>14.77574664907968</v>
+        <v>14.885633846488</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.78704143513895</v>
+        <v>10.17960172728327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81651550816649</v>
+        <v>25.92303771920285</v>
       </c>
       <c r="C17">
-        <v>13.73384798345178</v>
+        <v>15.2119725022518</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.17511493737661</v>
+        <v>7.126445357166654</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>22.83041360144163</v>
+        <v>14.60575061664588</v>
       </c>
       <c r="H17">
-        <v>12.90885957046198</v>
+        <v>6.812949405554352</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.818964526758982</v>
+        <v>6.463172901116885</v>
       </c>
       <c r="M17">
-        <v>14.70501029934856</v>
+        <v>14.59434615609836</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.8387051536924</v>
+        <v>10.25173143556163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.66718887315354</v>
+        <v>25.60501568572643</v>
       </c>
       <c r="C18">
-        <v>13.6967400360095</v>
+        <v>15.1038800865053</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.19108016965359</v>
+        <v>7.17152753923859</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>22.87639139974359</v>
+        <v>14.58519805585693</v>
       </c>
       <c r="H18">
-        <v>12.92515363960021</v>
+        <v>6.848258093423934</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.818864885345066</v>
+        <v>6.437360003974102</v>
       </c>
       <c r="M18">
-        <v>14.66427062780964</v>
+        <v>14.42431149423876</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.86896341243712</v>
+        <v>10.29556216810781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.61631614639342</v>
+        <v>25.49648708541955</v>
       </c>
       <c r="C19">
-        <v>13.68416846830051</v>
+        <v>15.06715641881542</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.19652326185708</v>
+        <v>7.186845642967031</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>22.89215562836772</v>
+        <v>14.5792758555266</v>
       </c>
       <c r="H19">
-        <v>12.93071492026885</v>
+        <v>6.860344061949646</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.818853086354679</v>
+        <v>6.428650378464147</v>
       </c>
       <c r="M19">
-        <v>14.65046861227314</v>
+        <v>14.36631182009027</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.87930146151693</v>
+        <v>10.31079355276069</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.84400295147319</v>
+        <v>25.98149236163859</v>
       </c>
       <c r="C20">
-        <v>13.74071207032453</v>
+        <v>15.23191779107348</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.17217795143345</v>
+        <v>7.118127204553806</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>22.8219978476047</v>
+        <v>14.61005123431034</v>
       </c>
       <c r="H20">
-        <v>12.90586498681312</v>
+        <v>6.806477518597265</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.818993381754803</v>
+        <v>6.467964522697346</v>
       </c>
       <c r="M20">
-        <v>14.71254613259287</v>
+        <v>14.62561217613632</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.83314928111539</v>
+        <v>10.2438078009194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.58677400662108</v>
+        <v>27.55210244483689</v>
       </c>
       <c r="C21">
-        <v>13.93003991114498</v>
+        <v>15.7764147112497</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.09298587057482</v>
+        <v>6.890924691396267</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>22.60007442917082</v>
+        <v>14.78809558095604</v>
       </c>
       <c r="H21">
-        <v>12.82545938508671</v>
+        <v>6.635057442133682</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.820986612944433</v>
+        <v>6.602093910973987</v>
       </c>
       <c r="M21">
-        <v>14.92039878807429</v>
+        <v>15.46707924572708</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.68457378397797</v>
+        <v>10.04762193325831</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05519168026181</v>
+        <v>28.53503760490718</v>
       </c>
       <c r="C22">
-        <v>14.05313762693899</v>
+        <v>16.12512697659115</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.04316301101555</v>
+        <v>6.74508517144853</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>22.46543344097961</v>
+        <v>14.96271685121455</v>
       </c>
       <c r="H22">
-        <v>12.775209084086</v>
+        <v>6.530723207818459</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.823418328895473</v>
+        <v>6.691206380672162</v>
       </c>
       <c r="M22">
-        <v>15.05553841046098</v>
+        <v>15.99497531797488</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.59232174739072</v>
+        <v>9.942977395421076</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.80677351498759</v>
+        <v>28.01438638109712</v>
       </c>
       <c r="C23">
-        <v>13.98750629618382</v>
+        <v>15.93968942358773</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.06957796167602</v>
+        <v>6.82268608384371</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>22.5363348952163</v>
+        <v>14.86403909327239</v>
       </c>
       <c r="H23">
-        <v>12.8018182903619</v>
+        <v>6.585664790969002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.822017519957861</v>
+        <v>6.643516883946961</v>
       </c>
       <c r="M23">
-        <v>14.98348694760096</v>
+        <v>15.71523641030317</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.6411136437488</v>
+        <v>9.996535110484148</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.83158181703953</v>
+        <v>25.95508087301989</v>
       </c>
       <c r="C24">
-        <v>13.73760901856145</v>
+        <v>15.22290299203621</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.1735050604878</v>
+        <v>7.121886806433962</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>22.82579896448055</v>
+        <v>14.60808787333688</v>
       </c>
       <c r="H24">
-        <v>12.90721801054895</v>
+        <v>6.809400986373094</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.818979939317316</v>
+        <v>6.465797726528311</v>
       </c>
       <c r="M24">
-        <v>14.70913940538666</v>
+        <v>14.61148481343498</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.83565935908161</v>
+        <v>10.24738274710324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.70976964044982</v>
+        <v>23.54438704922443</v>
       </c>
       <c r="C25">
-        <v>13.4663145466466</v>
+        <v>14.42165833157459</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.29395971690963</v>
+        <v>7.456603494002767</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>23.18193461126831</v>
+        <v>14.56368876315178</v>
       </c>
       <c r="H25">
-        <v>13.03078945759021</v>
+        <v>7.080269750178327</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.820583571902661</v>
+        <v>6.280780583468333</v>
       </c>
       <c r="M25">
-        <v>14.41128392395163</v>
+        <v>13.32553469828319</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.06624603512856</v>
+        <v>10.60623277186301</v>
       </c>
     </row>
   </sheetData>
